--- a/9/4/Fuerza de Trabajo, Empleo y Desocupación 1986 a 2021 - Mensual.xlsx
+++ b/9/4/Fuerza de Trabajo, Empleo y Desocupación 1986 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
   <si>
     <t>Serie</t>
   </si>
@@ -1304,6 +1304,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E426"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8500,13 +8503,13 @@
         <v>412</v>
       </c>
       <c r="B409">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="C409">
         <v>2.1</v>
       </c>
       <c r="D409">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E409">
         <v>7.4</v>
@@ -8588,10 +8591,10 @@
         <v>-15.4</v>
       </c>
       <c r="C414">
-        <v>-20</v>
+        <v>-19.9</v>
       </c>
       <c r="D414">
-        <v>42.9</v>
+        <v>42.5</v>
       </c>
       <c r="E414">
         <v>12.2</v>
@@ -8622,10 +8625,10 @@
         <v>-14.5</v>
       </c>
       <c r="C416">
-        <v>-19.4</v>
+        <v>-19.5</v>
       </c>
       <c r="D416">
-        <v>46</v>
+        <v>45.7</v>
       </c>
       <c r="E416">
         <v>12.9</v>
@@ -8799,6 +8802,23 @@
       </c>
       <c r="E426">
         <v>9.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>430</v>
+      </c>
+      <c r="B427">
+        <v>9.9</v>
+      </c>
+      <c r="C427">
+        <v>15.2</v>
+      </c>
+      <c r="D427">
+        <v>-25</v>
+      </c>
+      <c r="E427">
+        <v>8.9</v>
       </c>
     </row>
   </sheetData>

--- a/9/4/Fuerza de Trabajo, Empleo y Desocupación 1986 a 2021 - Mensual.xlsx
+++ b/9/4/Fuerza de Trabajo, Empleo y Desocupación 1986 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
   <si>
     <t>Serie</t>
   </si>
@@ -1307,6 +1307,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E427"/>
+  <dimension ref="A1:E428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8821,6 +8824,23 @@
         <v>8.9</v>
       </c>
     </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>431</v>
+      </c>
+      <c r="B428">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C428">
+        <v>14.8</v>
+      </c>
+      <c r="D428">
+        <v>-27.7</v>
+      </c>
+      <c r="E428">
+        <v>8.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/9/4/Fuerza de Trabajo, Empleo y Desocupación 1986 a 2021 - Mensual.xlsx
+++ b/9/4/Fuerza de Trabajo, Empleo y Desocupación 1986 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t>Serie</t>
   </si>
@@ -1310,6 +1310,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E428"/>
+  <dimension ref="A1:E429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8841,6 +8844,23 @@
         <v>8.5</v>
       </c>
     </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>432</v>
+      </c>
+      <c r="B429">
+        <v>8.4</v>
+      </c>
+      <c r="C429">
+        <v>13.3</v>
+      </c>
+      <c r="D429">
+        <v>-26.2</v>
+      </c>
+      <c r="E429">
+        <v>8.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
